--- a/Flyback_converter_AHS/Transformer.xlsx
+++ b/Flyback_converter_AHS/Transformer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/87011da2d366edf5/Belgeler/EE464_term_project_Social_Isiolation/Flyback_converter_AHS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="11_AD4D0BC4A776854ACB15BCD38E16CC62693EDF15" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5D1564B2-01B9-4EFF-92E4-E8BCE04801A9}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="11_AD4D0BC4A776854ACB15BCD38E16CC62693EDF15" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8039881B-ED61-483D-8215-5B4BA74D7360}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -485,7 +485,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -662,7 +662,7 @@
       </c>
       <c r="F12">
         <f>(B15-B2-F13)/(B4+B6)</f>
-        <v>9.6</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -677,7 +677,7 @@
         <v>27</v>
       </c>
       <c r="F13">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">

--- a/Flyback_converter_AHS/Transformer.xlsx
+++ b/Flyback_converter_AHS/Transformer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/87011da2d366edf5/Belgeler/EE464_term_project_Social_Isiolation/Flyback_converter_AHS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="11_AD4D0BC4A776854ACB15BCD38E16CC62693EDF15" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8039881B-ED61-483D-8215-5B4BA74D7360}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="11_AD4D0BC4A776854ACB15BCD38E16CC62693EDF15" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{793FB28E-3809-4DEF-BB02-1079DED2AE2D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -485,7 +485,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Flyback_converter_AHS/Transformer.xlsx
+++ b/Flyback_converter_AHS/Transformer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/87011da2d366edf5/Belgeler/EE464_term_project_Social_Isiolation/Flyback_converter_AHS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="11_AD4D0BC4A776854ACB15BCD38E16CC62693EDF15" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{793FB28E-3809-4DEF-BB02-1079DED2AE2D}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="11_AD4D0BC4A776854ACB15BCD38E16CC62693EDF15" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{394454E6-15BF-4168-A6ED-233A2137D185}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3612" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -188,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -202,6 +202,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,7 +486,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,7 +515,7 @@
       </c>
       <c r="F2">
         <f>(1-F3)*0.05*F4*0.8/F5</f>
-        <v>2.8583458646616537E-2</v>
+        <v>2.7072741312741316E-2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -529,7 +530,7 @@
       </c>
       <c r="F3">
         <f>((B4+B6)*F4)/((B4+B6)*F4+B3)</f>
-        <v>0.33834586466165412</v>
+        <v>0.32046332046332049</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -542,8 +543,8 @@
       <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="F4">
-        <v>9</v>
+      <c r="F4" s="7">
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -573,7 +574,7 @@
       </c>
       <c r="F6">
         <f>0.5*B11*B3*F3*0.1/F2</f>
-        <v>104.16666666666669</v>
+        <v>104.16666666666667</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -588,7 +589,7 @@
       </c>
       <c r="F7" s="5">
         <f>B13*F4*(B4+B6)*F2/0.02</f>
-        <v>1.2862556390977442E-4</v>
+        <v>1.1235187644787648E-4</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -603,7 +604,7 @@
       </c>
       <c r="F8" s="5">
         <f>B14*B2*F2/0.02</f>
-        <v>1.7150075187969923E-4</v>
+        <v>1.6243644787644791E-4</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -618,7 +619,7 @@
       </c>
       <c r="F9" s="5">
         <f>2*(B4+B6)*F5/(B11*(0.1/F2)^2*B12)</f>
-        <v>1.5197435048415876E-4</v>
+        <v>1.363343233234022E-4</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -631,7 +632,7 @@
       </c>
       <c r="F10" s="5">
         <f>0.8*(B4+B6)*F4*50*10^-6*F2/0.1</f>
-        <v>1.2862556390977439E-3</v>
+        <v>1.1235187644787646E-3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -646,7 +647,7 @@
       </c>
       <c r="F11" s="5">
         <f>1.3*0.1/F2</f>
-        <v>4.5480850168350173</v>
+        <v>4.8018779664110989</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
